--- a/Data/VesselLocations.xlsx
+++ b/Data/VesselLocations.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
